--- a/src/main/webapp/template/excel/paymentDetail.xlsx
+++ b/src/main/webapp/template/excel/paymentDetail.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\Workspace\yihg-erp-web\src\main\webapp\template\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
@@ -14,8 +19,8 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,79 +28,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>团号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>出团日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>行程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商家名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接站方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>客源地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>计调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>团款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>已结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>账目明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>应收款明细统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组团社团号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -186,14 +203,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,16 +219,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,40 +506,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -537,8 +557,9 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1">
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,55 +575,59 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1">
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -617,8 +642,9 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -633,8 +659,9 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -649,8 +676,9 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -665,8 +693,9 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -681,8 +710,9 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -697,8 +727,9 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -713,8 +744,9 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -729,8 +761,9 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -745,8 +778,9 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -761,8 +795,9 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -777,8 +812,9 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -793,8 +829,9 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -809,8 +846,9 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -825,8 +863,9 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -841,8 +880,9 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -857,8 +897,9 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -873,8 +914,9 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -889,8 +931,9 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -905,8 +948,9 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -921,65 +965,66 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="96" verticalDpi="96" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>